--- a/chromedriver_windows/result_samarskaya_oblast_volkswagen+golf.xlsx
+++ b/chromedriver_windows/result_samarskaya_oblast_volkswagen+golf.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Кол-во объявление</t>
   </si>
   <si>
+    <t>Телефон</t>
+  </si>
+  <si>
     <t>Ссылка на продавца</t>
   </si>
   <si>
@@ -40,40 +43,58 @@
     <t>Ссылка на объявление</t>
   </si>
   <si>
-    <t>7 690</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/user/4339fdca690399fe9687565aa10f3c83/profile?id=1904254144&amp;src=item&amp;page_from=from_item_card&amp;iid=1904254144</t>
+    <t>7 692</t>
+  </si>
+  <si>
+    <t>8 919 033-30-00
+_x000C_</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/interzap40?gdlkerfdnwq=101&amp;shopId=319819&amp;page_from=from_item_card&amp;iid=2121763581</t>
   </si>
   <si>
     <t>volkswagen golf</t>
   </si>
   <si>
-    <t>Самарская область, Тольятти, Коммунистическая ул., 132</t>
-  </si>
-  <si>
-    <t>р-н Комсомольский</t>
-  </si>
-  <si>
-    <t>Автосвет</t>
-  </si>
-  <si>
-    <t>фольксваген гольф 5 фонарь задний левый внутрений, в крышку багажника
-В разборе много машин, запчасти в наличии и под заказ 
-ГАРАНТИЯ НА ВСЕ ЗАПЧАСТИ.
-==========================================
-Большой выбор запчастей для легковых автомобилей
-Выкуп автомобилей в любом состоянии.
-Гарантия на установку и проверку - 14 дней.
-Осуществляется доставка в регионы, транспортной компанией.
-==========================================
-График работы.
-Пн - Пт: 10.00 - 19.00
-сб - Вс: 10.00 - 17.00
-Адрес: г.Тольятти ул.Коммунистическая 132</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru/tolyatti/zapchasti_i_aksessuary/volkswagen_golf_5_fonar_zadniy_levyy_vnutreniy_1904254144?slocation=652560</t>
+    <t>Калужская область, Калуга, Зерновая ул., 34А</t>
+  </si>
+  <si>
+    <t>р-н Октябрьский</t>
+  </si>
+  <si>
+    <t>Трансмиссия и привод</t>
+  </si>
+  <si>
+    <t>Мкпп Volkswagen Golf 4 1J 1.4 (б/у)
+Марка: Volkswagen
+Модель: Golf 4
+Кузов: 1J
+Двигатель: 1.4, 1.6
+Производитель: VAG
+Маркировка: DUU
+Механическая трансмиссия в отличном состоянии ,без пробега по РФ Фольксваген Гольф 4 Бора Шкода Октавияольф 4 Бора Шкода Октавия
+Артикул товара №13397
+МКПП подходит:
+Skoda Octavia 1 поколение 1996 - 2010 A4 (1U2, 1U5)
+Volkswagen Bora 1 поколение 1998 - 2005 A4 (1J2, 1J6)
+Volkswagen Golf 5 поколение 2003 - 2009 Mk5 (1K1, 1K5)
+Volkswagen Jetta 4 поколение 1998 - 2005 (1J6, 9M2)
+Шкода Октавия;
+Фольксваген, VW Бора, Гольф, Джетта;
+Основной склад находится в г.Калуга.
+Бесплатная доставка в Москву: вторник и пятница.
+Бесплатная доставка в Тулу: среда и суббота ( пос. Иншинский в 18-00 )
+Автозапчасти по самым демократичным ценам в любой уголок России.
+Гарантия.
+Прямые поставки из России, Беларуси, Великобритании, Германии, США, Японии и Кореи.
+Доставка по России транспортными компаниями. При получении товара в ТК, обязательно осматривайте товар перед тем, как расписаться в документах.</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/kaluga/zapchasti_i_aksessuary/mkpp_volkswagen_golf_4_1j_1.4_2121763581</t>
+  </si>
+  <si>
+    <t>8 987 444-04-00
+_x000C_</t>
   </si>
   <si>
     <t>https://www.avito.ru/user/941ca9774db56b25dace13a8c927af41/profile?id=1835737746&amp;src=item&amp;page_from=from_item_card&amp;iid=1835737746</t>
@@ -435,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,62 +487,71 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
